--- a/Jogos_do_Dia/2023-04-21_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-04-21_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -686,13 +686,13 @@
         <v>1.13</v>
       </c>
       <c r="X2" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.61</v>
+        <v>2.65</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AG2" t="n">
         <v>0</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="G3" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="I3" t="n">
         <v>1.1</v>
@@ -763,10 +763,10 @@
         <v>2.62</v>
       </c>
       <c r="M3" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="N3" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="O3" t="n">
         <v>1.44</v>
@@ -805,22 +805,22 @@
         <v>2.65</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="X4" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="Y4" t="n">
         <v>1.27</v>
       </c>
       <c r="Z4" t="n">
-        <v>3.31</v>
+        <v>3.37</v>
       </c>
       <c r="AA4" t="n">
         <v>1.18</v>
@@ -1025,28 +1025,28 @@
         <v>1.76</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="6">
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="G6" t="n">
         <v>3.1</v>
       </c>
-      <c r="G6" t="n">
-        <v>3.3</v>
-      </c>
       <c r="H6" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="I6" t="n">
         <v>1.08</v>
@@ -1093,10 +1093,10 @@
         <v>2.95</v>
       </c>
       <c r="M6" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="N6" t="n">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="O6" t="n">
         <v>1.44</v>
@@ -1135,28 +1135,28 @@
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="7">
@@ -1203,10 +1203,10 @@
         <v>4.2</v>
       </c>
       <c r="M7" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="N7" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="O7" t="n">
         <v>1.33</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.16</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>3.15</v>
+        <v>2.15</v>
       </c>
       <c r="I8" t="n">
         <v>1.06</v>
@@ -1313,10 +1313,10 @@
         <v>2.9</v>
       </c>
       <c r="M8" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="N8" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="O8" t="n">
         <v>1.48</v>
@@ -1373,10 +1373,10 @@
         <v>2.36</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="9">
@@ -1405,10 +1405,10 @@
         <v>1.17</v>
       </c>
       <c r="G9" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="H9" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="I9" t="n">
         <v>1.04</v>
@@ -1423,10 +1423,10 @@
         <v>3.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="N9" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="O9" t="n">
         <v>1.33</v>
@@ -1465,22 +1465,22 @@
         <v>1.4</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AG9" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>2.51</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AG10" t="n">
         <v>0</v>
@@ -1685,28 +1685,28 @@
         <v>0.87</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>3.72</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>2.91</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>4.15</v>
       </c>
     </row>
     <row r="12">
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.42</v>
+        <v>3.74</v>
       </c>
       <c r="G12" t="n">
-        <v>3.5</v>
+        <v>3.62</v>
       </c>
       <c r="H12" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="I12" t="n">
         <v>1.04</v>
@@ -1753,10 +1753,10 @@
         <v>3.6</v>
       </c>
       <c r="M12" t="n">
-        <v>1.8</v>
+        <v>2.02</v>
       </c>
       <c r="N12" t="n">
-        <v>1.9</v>
+        <v>1.79</v>
       </c>
       <c r="O12" t="n">
         <v>1.38</v>
@@ -1795,25 +1795,25 @@
         <v>2.65</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AH12" t="n">
         <v>0</v>
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="F13" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="G13" t="n">
         <v>3.25</v>
       </c>
-      <c r="G13" t="n">
-        <v>3.15</v>
-      </c>
       <c r="H13" t="n">
-        <v>1.98</v>
+        <v>1.82</v>
       </c>
       <c r="I13" t="n">
         <v>1.08</v>
@@ -1863,10 +1863,10 @@
         <v>3.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.77</v>
+        <v>2.15</v>
       </c>
       <c r="N13" t="n">
-        <v>1.77</v>
+        <v>1.65</v>
       </c>
       <c r="O13" t="n">
         <v>1.4</v>
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="G15" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="H15" t="n">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="I15" t="n">
         <v>1.06</v>
@@ -2083,7 +2083,7 @@
         <v>3.1</v>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="N15" t="n">
         <v>1.72</v>
@@ -2172,13 +2172,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="G16" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H16" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I16" t="n">
         <v>1.01</v>
@@ -2193,10 +2193,10 @@
         <v>3.34</v>
       </c>
       <c r="M16" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="N16" t="n">
-        <v>1.69</v>
+        <v>1.9</v>
       </c>
       <c r="O16" t="n">
         <v>1.4</v>
@@ -2235,19 +2235,19 @@
         <v>3.17</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AF16" t="n">
         <v>1.6</v>
@@ -2282,13 +2282,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="G17" t="n">
-        <v>6.3</v>
+        <v>7.1</v>
       </c>
       <c r="H17" t="n">
-        <v>14.3</v>
+        <v>14</v>
       </c>
       <c r="I17" t="n">
         <v>1.02</v>
@@ -2303,10 +2303,10 @@
         <v>4.5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="N17" t="n">
-        <v>2.22</v>
+        <v>2.4</v>
       </c>
       <c r="O17" t="n">
         <v>1.27</v>
@@ -2392,13 +2392,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.08</v>
+        <v>2.43</v>
       </c>
       <c r="G18" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="H18" t="n">
-        <v>3.15</v>
+        <v>2.72</v>
       </c>
       <c r="I18" t="n">
         <v>1.05</v>
@@ -2413,10 +2413,10 @@
         <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>1.77</v>
+        <v>1.91</v>
       </c>
       <c r="N18" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="O18" t="n">
         <v>1.36</v>
@@ -2633,10 +2633,10 @@
         <v>4.7</v>
       </c>
       <c r="M20" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="N20" t="n">
-        <v>2.07</v>
+        <v>2.38</v>
       </c>
       <c r="O20" t="n">
         <v>1.28</v>
@@ -2684,10 +2684,10 @@
         <v>2.42</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF20" t="n">
         <v>1.65</v>
@@ -2743,10 +2743,10 @@
         <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="N21" t="n">
-        <v>1.99</v>
+        <v>2.14</v>
       </c>
       <c r="O21" t="n">
         <v>1.33</v>
@@ -2794,7 +2794,7 @@
         <v>2.64</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE21" t="n">
         <v>1.45</v>
@@ -2806,7 +2806,7 @@
         <v>2.1</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="22">
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.52</v>
+        <v>2.39</v>
       </c>
       <c r="G22" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H22" t="n">
-        <v>2.66</v>
+        <v>2.57</v>
       </c>
       <c r="I22" t="n">
         <v>1.06</v>
@@ -2853,10 +2853,10 @@
         <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>1.89</v>
+        <v>2.12</v>
       </c>
       <c r="N22" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="O22" t="n">
         <v>1.44</v>
@@ -2895,25 +2895,25 @@
         <v>3.08</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AH22" t="n">
         <v>1.88</v>
@@ -2942,37 +2942,37 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G23" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="H23" t="n">
-        <v>2.52</v>
+        <v>2.9</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
-        <v>1.69</v>
+        <v>1.62</v>
       </c>
       <c r="N23" t="n">
-        <v>1.86</v>
+        <v>2.25</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="Q23" t="n">
         <v>1.57</v>
@@ -2981,13 +2981,13 @@
         <v>2.25</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="V23" t="n">
         <v>0.68</v>
@@ -3005,28 +3005,28 @@
         <v>2.72</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AF23" t="n">
         <v>1.95</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="24">
@@ -3052,37 +3052,37 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.69</v>
+        <v>3.2</v>
       </c>
       <c r="G24" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="H24" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="M24" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="N24" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q24" t="n">
         <v>1.62</v>
@@ -3091,13 +3091,13 @@
         <v>2.2</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="V24" t="n">
         <v>1.58</v>
@@ -3115,28 +3115,28 @@
         <v>3.51</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AE24" t="n">
         <v>1.7</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="25">
@@ -3183,10 +3183,10 @@
         <v>3.95</v>
       </c>
       <c r="M25" t="n">
-        <v>1.58</v>
+        <v>1.77</v>
       </c>
       <c r="N25" t="n">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="O25" t="n">
         <v>1.33</v>
@@ -3272,13 +3272,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.23</v>
+        <v>2.24</v>
       </c>
       <c r="G26" t="n">
-        <v>3.08</v>
+        <v>3.3</v>
       </c>
       <c r="H26" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -3293,10 +3293,10 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1.96</v>
+        <v>2.1</v>
       </c>
       <c r="N26" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -3382,52 +3382,52 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.46</v>
+        <v>2.55</v>
       </c>
       <c r="G27" t="n">
-        <v>2.98</v>
+        <v>3.04</v>
       </c>
       <c r="H27" t="n">
-        <v>2.72</v>
+        <v>2.83</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M27" t="n">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="N27" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="V27" t="n">
         <v>1.47</v>
@@ -3457,7 +3457,7 @@
         <v>0</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AF27" t="n">
         <v>0</v>
@@ -3492,13 +3492,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.52</v>
+        <v>2.32</v>
       </c>
       <c r="G28" t="n">
-        <v>2.85</v>
+        <v>3.3</v>
       </c>
       <c r="H28" t="n">
-        <v>2.61</v>
+        <v>2.72</v>
       </c>
       <c r="I28" t="n">
         <v>1.07</v>
@@ -3513,10 +3513,10 @@
         <v>3.1</v>
       </c>
       <c r="M28" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="N28" t="n">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="O28" t="n">
         <v>1.45</v>
@@ -3576,7 +3576,7 @@
         <v>3.34</v>
       </c>
       <c r="AH28" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="29">
@@ -3623,10 +3623,10 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1.66</v>
+        <v>1.78</v>
       </c>
       <c r="N29" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -3712,13 +3712,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.45</v>
+        <v>2.17</v>
       </c>
       <c r="G30" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H30" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -3736,7 +3736,7 @@
         <v>1.88</v>
       </c>
       <c r="N30" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -3885,13 +3885,13 @@
         <v>2.68</v>
       </c>
       <c r="AA31" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>13.25</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD31" t="n">
         <v>1.29</v>
@@ -3995,13 +3995,13 @@
         <v>2.95</v>
       </c>
       <c r="AA32" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AB32" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="AD32" t="n">
         <v>1.18</v>
@@ -4105,13 +4105,13 @@
         <v>2.94</v>
       </c>
       <c r="AA33" t="n">
-        <v>0</v>
+        <v>3.32</v>
       </c>
       <c r="AB33" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AD33" t="n">
         <v>1.18</v>
@@ -4215,13 +4215,13 @@
         <v>2.77</v>
       </c>
       <c r="AA34" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AB34" t="n">
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="AC34" t="n">
-        <v>0</v>
+        <v>4.55</v>
       </c>
       <c r="AD34" t="n">
         <v>1.18</v>
@@ -4325,13 +4325,13 @@
         <v>2.62</v>
       </c>
       <c r="AA35" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AB35" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC35" t="n">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="AD35" t="n">
         <v>1.25</v>
@@ -4435,13 +4435,13 @@
         <v>3.25</v>
       </c>
       <c r="AA36" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AB36" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AC36" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AD36" t="n">
         <v>1.22</v>
@@ -4545,28 +4545,28 @@
         <v>2.63</v>
       </c>
       <c r="AA37" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="AB37" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC37" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AD37" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AE37" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AF37" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AG37" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AH37" t="n">
-        <v>0</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="38">
@@ -4655,13 +4655,13 @@
         <v>3.45</v>
       </c>
       <c r="AA38" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AB38" t="n">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AC38" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AD38" t="n">
         <v>1.22</v>
@@ -4726,7 +4726,7 @@
         <v>1.58</v>
       </c>
       <c r="N39" t="n">
-        <v>2.18</v>
+        <v>2.38</v>
       </c>
       <c r="O39" t="n">
         <v>1.3</v>
@@ -4812,13 +4812,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.66</v>
+        <v>3.3</v>
       </c>
       <c r="G40" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H40" t="n">
-        <v>2.52</v>
+        <v>2.17</v>
       </c>
       <c r="I40" t="n">
         <v>1.06</v>
@@ -4833,10 +4833,10 @@
         <v>3</v>
       </c>
       <c r="M40" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="N40" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="O40" t="n">
         <v>1.46</v>
@@ -5053,10 +5053,10 @@
         <v>2.83</v>
       </c>
       <c r="M42" t="n">
-        <v>2.03</v>
+        <v>2.45</v>
       </c>
       <c r="N42" t="n">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
       <c r="O42" t="n">
         <v>1.5</v>
@@ -5142,13 +5142,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="G43" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H43" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="I43" t="n">
         <v>1.05</v>
@@ -5163,10 +5163,10 @@
         <v>3.4</v>
       </c>
       <c r="M43" t="n">
-        <v>1.72</v>
+        <v>1.86</v>
       </c>
       <c r="N43" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="O43" t="n">
         <v>1.39</v>
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.8</v>
+        <v>2.14</v>
       </c>
       <c r="G44" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H44" t="n">
         <v>3.4</v>
-      </c>
-      <c r="H44" t="n">
-        <v>4.1</v>
       </c>
       <c r="I44" t="n">
         <v>1.09</v>
@@ -5267,16 +5267,16 @@
         <v>7</v>
       </c>
       <c r="K44" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="L44" t="n">
         <v>2.45</v>
       </c>
       <c r="M44" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="N44" t="n">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="O44" t="n">
         <v>1.54</v>
@@ -5377,16 +5377,16 @@
         <v>6.5</v>
       </c>
       <c r="K45" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="L45" t="n">
         <v>2.45</v>
       </c>
       <c r="M45" t="n">
-        <v>2.52</v>
+        <v>2.4</v>
       </c>
       <c r="N45" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="O45" t="n">
         <v>1.58</v>
@@ -5472,13 +5472,13 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>4.1</v>
+        <v>4.35</v>
       </c>
       <c r="G46" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="H46" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="I46" t="n">
         <v>1.06</v>
@@ -5493,10 +5493,10 @@
         <v>3.25</v>
       </c>
       <c r="M46" t="n">
-        <v>1.88</v>
+        <v>2.1</v>
       </c>
       <c r="N46" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="O46" t="n">
         <v>1.4</v>
@@ -5582,13 +5582,13 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="G47" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="H47" t="n">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="I47" t="n">
         <v>1.06</v>
@@ -5603,10 +5603,10 @@
         <v>3.1</v>
       </c>
       <c r="M47" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="N47" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="O47" t="n">
         <v>1.41</v>
@@ -5654,7 +5654,7 @@
         <v>1.82</v>
       </c>
       <c r="AD47" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AE47" t="n">
         <v>1.34</v>
@@ -5713,10 +5713,10 @@
         <v>2.8</v>
       </c>
       <c r="M48" t="n">
-        <v>2.24</v>
+        <v>2.23</v>
       </c>
       <c r="N48" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="O48" t="n">
         <v>1.5</v>
@@ -5823,7 +5823,7 @@
         <v>5</v>
       </c>
       <c r="M49" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="N49" t="n">
         <v>2.7</v>
@@ -5912,13 +5912,13 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="G50" t="n">
-        <v>3.06</v>
+        <v>3.15</v>
       </c>
       <c r="H50" t="n">
-        <v>3.88</v>
+        <v>4.55</v>
       </c>
       <c r="I50" t="n">
         <v>1.11</v>
@@ -5927,16 +5927,16 @@
         <v>6.5</v>
       </c>
       <c r="K50" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="L50" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="N50" t="n">
         <v>1.53</v>
-      </c>
-      <c r="L50" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="M50" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="N50" t="n">
-        <v>1.46</v>
       </c>
       <c r="O50" t="n">
         <v>1.6</v>
@@ -6043,10 +6043,10 @@
         <v>5.6</v>
       </c>
       <c r="M51" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="N51" t="n">
-        <v>2.66</v>
+        <v>2.57</v>
       </c>
       <c r="O51" t="n">
         <v>1.25</v>
@@ -6135,10 +6135,10 @@
         <v>5</v>
       </c>
       <c r="G52" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="H52" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="I52" t="n">
         <v>1.07</v>
@@ -6153,10 +6153,10 @@
         <v>1.98</v>
       </c>
       <c r="M52" t="n">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="N52" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="O52" t="n">
         <v>1.45</v>
@@ -6245,10 +6245,10 @@
         <v>1.95</v>
       </c>
       <c r="G53" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="H53" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I53" t="n">
         <v>1.1</v>
@@ -6263,10 +6263,10 @@
         <v>2.65</v>
       </c>
       <c r="M53" t="n">
-        <v>2.39</v>
+        <v>2.45</v>
       </c>
       <c r="N53" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="O53" t="n">
         <v>1.53</v>
@@ -6314,7 +6314,7 @@
         <v>3.56</v>
       </c>
       <c r="AD53" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE53" t="n">
         <v>1.31</v>
@@ -6352,13 +6352,13 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="G54" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H54" t="n">
-        <v>3.78</v>
+        <v>4.6</v>
       </c>
       <c r="I54" t="n">
         <v>1.04</v>
@@ -6373,10 +6373,10 @@
         <v>3.43</v>
       </c>
       <c r="M54" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="N54" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="O54" t="n">
         <v>1.38</v>
@@ -6462,52 +6462,52 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="M55" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="N55" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="O55" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P55" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="Q55" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="R55" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="S55" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="T55" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="U55" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="V55" t="n">
         <v>1</v>
@@ -7122,13 +7122,13 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.46</v>
+        <v>2.55</v>
       </c>
       <c r="G61" t="n">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="H61" t="n">
-        <v>2.81</v>
+        <v>2.75</v>
       </c>
       <c r="I61" t="n">
         <v>1.09</v>
@@ -7143,10 +7143,10 @@
         <v>2.5</v>
       </c>
       <c r="M61" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="N61" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="O61" t="n">
         <v>1.51</v>
@@ -7232,13 +7232,13 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="G62" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H62" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="I62" t="n">
         <v>1.11</v>
@@ -7253,10 +7253,10 @@
         <v>2.45</v>
       </c>
       <c r="M62" t="n">
-        <v>2.33</v>
+        <v>2.47</v>
       </c>
       <c r="N62" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="O62" t="n">
         <v>1.5</v>
@@ -7342,52 +7342,52 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2.02</v>
+        <v>1.85</v>
       </c>
       <c r="G63" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H63" t="n">
-        <v>3.46</v>
+        <v>3.75</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="M63" t="n">
-        <v>2.08</v>
+        <v>1.9</v>
       </c>
       <c r="N63" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="O63" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P63" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q63" t="n">
         <v>1.73</v>
       </c>
-      <c r="O63" t="n">
-        <v>0</v>
-      </c>
-      <c r="P63" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>0</v>
-      </c>
       <c r="R63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S63" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="T63" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="U63" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="V63" t="n">
         <v>1.5</v>
@@ -7420,7 +7420,7 @@
         <v>0</v>
       </c>
       <c r="AF63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG63" t="n">
         <v>0</v>
@@ -7726,13 +7726,13 @@
         <v>1</v>
       </c>
       <c r="X66" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="Y66" t="n">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="Z66" t="n">
-        <v>2.55</v>
+        <v>2.72</v>
       </c>
       <c r="AA66" t="n">
         <v>0</v>
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2.32</v>
+        <v>1.8</v>
       </c>
       <c r="G67" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H67" t="n">
-        <v>3.07</v>
+        <v>4.4</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="J67" t="n">
         <v>7.15</v>
       </c>
       <c r="K67" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="L67" t="n">
-        <v>2.29</v>
+        <v>2.4</v>
       </c>
       <c r="M67" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="N67" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="O67" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="P67" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="Q67" t="n">
         <v>2.4</v>
@@ -7845,22 +7845,22 @@
         <v>3.05</v>
       </c>
       <c r="AA67" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AB67" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC67" t="n">
-        <v>0</v>
+        <v>3.07</v>
       </c>
       <c r="AD67" t="n">
         <v>0</v>
       </c>
       <c r="AE67" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AF67" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AG67" t="n">
         <v>0</v>
@@ -7955,13 +7955,13 @@
         <v>2.68</v>
       </c>
       <c r="AA68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB68" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC68" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AD68" t="n">
         <v>1.37</v>
@@ -7976,7 +7976,7 @@
         <v>3.1</v>
       </c>
       <c r="AH68" t="n">
-        <v>0</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="69">
@@ -8002,43 +8002,43 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1.51</v>
+        <v>1.9</v>
       </c>
       <c r="G69" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H69" t="n">
-        <v>5.2</v>
+        <v>3.2</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="M69" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="N69" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O69" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="P69" t="n">
-        <v>0</v>
+        <v>3.74</v>
       </c>
       <c r="Q69" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="R69" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="S69" t="n">
         <v>1.3</v>
@@ -8080,7 +8080,7 @@
         <v>0</v>
       </c>
       <c r="AF69" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AG69" t="n">
         <v>0</v>
@@ -8118,7 +8118,7 @@
         <v>3.3</v>
       </c>
       <c r="H70" t="n">
-        <v>2.54</v>
+        <v>2.55</v>
       </c>
       <c r="I70" t="n">
         <v>1.05</v>
@@ -8133,10 +8133,10 @@
         <v>3.64</v>
       </c>
       <c r="M70" t="n">
-        <v>1.68</v>
+        <v>2.07</v>
       </c>
       <c r="N70" t="n">
-        <v>1.87</v>
+        <v>1.7</v>
       </c>
       <c r="O70" t="n">
         <v>1.36</v>

--- a/Jogos_do_Dia/2023-04-21_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-04-21_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH70"/>
+  <dimension ref="A1:AH64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,10 +680,10 @@
         <v>1.86</v>
       </c>
       <c r="V2" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="W2" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="X2" t="n">
         <v>1.68</v>
@@ -790,10 +790,10 @@
         <v>1.76</v>
       </c>
       <c r="V3" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="W3" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="X3" t="n">
         <v>1.44</v>
@@ -900,10 +900,10 @@
         <v>2.75</v>
       </c>
       <c r="V4" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="W4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="X4" t="n">
         <v>2.1</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="G6" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H6" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="I6" t="n">
         <v>1.08</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="G7" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="I7" t="n">
         <v>1.03</v>
@@ -1203,10 +1203,10 @@
         <v>4.2</v>
       </c>
       <c r="M7" t="n">
-        <v>1.68</v>
+        <v>1.53</v>
       </c>
       <c r="N7" t="n">
-        <v>2.18</v>
+        <v>2.35</v>
       </c>
       <c r="O7" t="n">
         <v>1.33</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="G8" t="n">
         <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="I8" t="n">
         <v>1.06</v>
@@ -1313,10 +1313,10 @@
         <v>2.9</v>
       </c>
       <c r="M8" t="n">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
       <c r="N8" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="O8" t="n">
         <v>1.48</v>
@@ -1405,10 +1405,10 @@
         <v>1.17</v>
       </c>
       <c r="G9" t="n">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="H9" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="I9" t="n">
         <v>1.04</v>
@@ -1423,10 +1423,10 @@
         <v>3.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="N9" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="O9" t="n">
         <v>1.33</v>
@@ -1483,10 +1483,10 @@
         <v>2.45</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>4.15</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="10">
@@ -1593,7 +1593,7 @@
         <v>2.45</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AH10" t="n">
         <v>0</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.74</v>
+        <v>3.08</v>
       </c>
       <c r="G12" t="n">
-        <v>3.62</v>
+        <v>3.16</v>
       </c>
       <c r="H12" t="n">
-        <v>1.96</v>
+        <v>1.82</v>
       </c>
       <c r="I12" t="n">
         <v>1.04</v>
@@ -1753,10 +1753,10 @@
         <v>3.6</v>
       </c>
       <c r="M12" t="n">
-        <v>2.02</v>
+        <v>1.71</v>
       </c>
       <c r="N12" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="O12" t="n">
         <v>1.38</v>
@@ -1816,7 +1816,7 @@
         <v>2.85</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="13">
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="G13" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H13" t="n">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="I13" t="n">
         <v>1.08</v>
@@ -1863,10 +1863,10 @@
         <v>3.5</v>
       </c>
       <c r="M13" t="n">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="N13" t="n">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="O13" t="n">
         <v>1.4</v>
@@ -1952,52 +1952,52 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="V14" t="n">
         <v>1.5</v>
@@ -2015,28 +2015,28 @@
         <v>2.98</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="15">
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="G15" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="H15" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="I15" t="n">
         <v>1.06</v>
@@ -2086,7 +2086,7 @@
         <v>2.05</v>
       </c>
       <c r="N15" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="O15" t="n">
         <v>1.42</v>
@@ -2172,13 +2172,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="G16" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H16" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="I16" t="n">
         <v>1.01</v>
@@ -2193,10 +2193,10 @@
         <v>3.34</v>
       </c>
       <c r="M16" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="N16" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="O16" t="n">
         <v>1.4</v>
@@ -2282,13 +2282,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="G17" t="n">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="H17" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I17" t="n">
         <v>1.02</v>
@@ -2306,7 +2306,7 @@
         <v>1.53</v>
       </c>
       <c r="N17" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O17" t="n">
         <v>1.27</v>
@@ -2392,13 +2392,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.43</v>
+        <v>2.05</v>
       </c>
       <c r="G18" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="H18" t="n">
-        <v>2.72</v>
+        <v>3.2</v>
       </c>
       <c r="I18" t="n">
         <v>1.05</v>
@@ -2413,10 +2413,10 @@
         <v>4</v>
       </c>
       <c r="M18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="N18" t="n">
         <v>1.91</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1.95</v>
       </c>
       <c r="O18" t="n">
         <v>1.36</v>
@@ -2502,52 +2502,52 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="V19" t="n">
         <v>1.29</v>
@@ -2565,28 +2565,28 @@
         <v>2.8</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -2612,13 +2612,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="G20" t="n">
         <v>3.5</v>
       </c>
       <c r="H20" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I20" t="n">
         <v>1.01</v>
@@ -2722,13 +2722,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="G21" t="n">
         <v>3.4</v>
       </c>
       <c r="H21" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
@@ -2743,10 +2743,10 @@
         <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="N21" t="n">
-        <v>2.14</v>
+        <v>2.15</v>
       </c>
       <c r="O21" t="n">
         <v>1.33</v>
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.39</v>
+        <v>2.4</v>
       </c>
       <c r="G22" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H22" t="n">
-        <v>2.57</v>
+        <v>2.65</v>
       </c>
       <c r="I22" t="n">
         <v>1.06</v>
@@ -2853,10 +2853,10 @@
         <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>2.12</v>
+        <v>1.95</v>
       </c>
       <c r="N22" t="n">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="O22" t="n">
         <v>1.44</v>
@@ -2945,10 +2945,10 @@
         <v>2.4</v>
       </c>
       <c r="G23" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="H23" t="n">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="I23" t="n">
         <v>1.04</v>
@@ -2963,10 +2963,10 @@
         <v>4</v>
       </c>
       <c r="M23" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="N23" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="O23" t="n">
         <v>1.3</v>
@@ -2975,10 +2975,10 @@
         <v>3.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="R23" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="S23" t="n">
         <v>1.44</v>
@@ -3052,10 +3052,10 @@
         </is>
       </c>
       <c r="F24" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G24" t="n">
         <v>3.2</v>
-      </c>
-      <c r="G24" t="n">
-        <v>3.5</v>
       </c>
       <c r="H24" t="n">
         <v>2.2</v>
@@ -3073,10 +3073,10 @@
         <v>3.75</v>
       </c>
       <c r="M24" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="N24" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O24" t="n">
         <v>1.36</v>
@@ -3130,7 +3130,7 @@
         <v>1.7</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.86</v>
+        <v>2.38</v>
       </c>
       <c r="AG24" t="n">
         <v>2.3</v>
@@ -3162,13 +3162,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="G25" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="H25" t="n">
-        <v>2.95</v>
+        <v>3.9</v>
       </c>
       <c r="I25" t="n">
         <v>1.03</v>
@@ -3183,10 +3183,10 @@
         <v>3.95</v>
       </c>
       <c r="M25" t="n">
-        <v>1.77</v>
+        <v>1.61</v>
       </c>
       <c r="N25" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O25" t="n">
         <v>1.33</v>
@@ -3272,13 +3272,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="G26" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H26" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -3293,10 +3293,10 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="N26" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -3382,13 +3382,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="G27" t="n">
-        <v>3.04</v>
+        <v>2.9</v>
       </c>
       <c r="H27" t="n">
-        <v>2.83</v>
+        <v>2.5</v>
       </c>
       <c r="I27" t="n">
         <v>1.08</v>
@@ -3403,10 +3403,10 @@
         <v>3</v>
       </c>
       <c r="M27" t="n">
-        <v>2.16</v>
+        <v>2.25</v>
       </c>
       <c r="N27" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="O27" t="n">
         <v>1.44</v>
@@ -3492,13 +3492,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.32</v>
+        <v>2.55</v>
       </c>
       <c r="G28" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="H28" t="n">
-        <v>2.72</v>
+        <v>2.62</v>
       </c>
       <c r="I28" t="n">
         <v>1.07</v>
@@ -3513,7 +3513,7 @@
         <v>3.1</v>
       </c>
       <c r="M28" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="N28" t="n">
         <v>1.57</v>
@@ -3602,13 +3602,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="G29" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="H29" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -3623,10 +3623,10 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="N29" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -3712,13 +3712,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.17</v>
+        <v>2.25</v>
       </c>
       <c r="G30" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="H30" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -3733,10 +3733,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="N30" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -4033,85 +4033,85 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Heracles</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>4.67</v>
+        <v>1.43</v>
       </c>
       <c r="G33" t="n">
-        <v>3.85</v>
+        <v>4.71</v>
       </c>
       <c r="H33" t="n">
-        <v>1.62</v>
+        <v>7.06</v>
       </c>
       <c r="I33" t="n">
         <v>1.02</v>
       </c>
       <c r="J33" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K33" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="L33" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="M33" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="N33" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O33" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P33" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.61</v>
+        <v>1.8</v>
       </c>
       <c r="R33" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="S33" t="n">
-        <v>2.2</v>
+        <v>1.11</v>
       </c>
       <c r="T33" t="n">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="U33" t="n">
-        <v>1.15</v>
+        <v>2.85</v>
       </c>
       <c r="V33" t="n">
         <v>1.5</v>
       </c>
       <c r="W33" t="n">
-        <v>1.75</v>
+        <v>0.44</v>
       </c>
       <c r="X33" t="n">
-        <v>1.41</v>
+        <v>1.62</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.53</v>
+        <v>1.15</v>
       </c>
       <c r="Z33" t="n">
-        <v>2.94</v>
+        <v>2.77</v>
       </c>
       <c r="AA33" t="n">
-        <v>3.32</v>
+        <v>1.29</v>
       </c>
       <c r="AB33" t="n">
-        <v>8.9</v>
+        <v>10.25</v>
       </c>
       <c r="AC33" t="n">
-        <v>1.47</v>
+        <v>4.55</v>
       </c>
       <c r="AD33" t="n">
         <v>1.18</v>
@@ -4143,85 +4143,85 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Heracles</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.43</v>
+        <v>4.67</v>
       </c>
       <c r="G34" t="n">
-        <v>4.71</v>
+        <v>3.85</v>
       </c>
       <c r="H34" t="n">
-        <v>7.06</v>
+        <v>1.62</v>
       </c>
       <c r="I34" t="n">
         <v>1.02</v>
       </c>
       <c r="J34" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K34" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="L34" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="M34" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="N34" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O34" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P34" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.8</v>
+        <v>1.61</v>
       </c>
       <c r="R34" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="S34" t="n">
-        <v>1.11</v>
+        <v>2.2</v>
       </c>
       <c r="T34" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="U34" t="n">
         <v>1.15</v>
-      </c>
-      <c r="U34" t="n">
-        <v>2.85</v>
       </c>
       <c r="V34" t="n">
         <v>1.5</v>
       </c>
       <c r="W34" t="n">
-        <v>0.44</v>
+        <v>1.75</v>
       </c>
       <c r="X34" t="n">
-        <v>1.62</v>
+        <v>1.41</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.15</v>
+        <v>1.53</v>
       </c>
       <c r="Z34" t="n">
-        <v>2.77</v>
+        <v>2.94</v>
       </c>
       <c r="AA34" t="n">
-        <v>1.29</v>
+        <v>3.32</v>
       </c>
       <c r="AB34" t="n">
-        <v>10.25</v>
+        <v>8.9</v>
       </c>
       <c r="AC34" t="n">
-        <v>4.55</v>
+        <v>1.47</v>
       </c>
       <c r="AD34" t="n">
         <v>1.18</v>
@@ -4363,100 +4363,100 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Dordrecht</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>AZ II</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.83</v>
+        <v>3.06</v>
       </c>
       <c r="G36" t="n">
-        <v>3.92</v>
+        <v>3.76</v>
       </c>
       <c r="H36" t="n">
-        <v>3.97</v>
+        <v>2.19</v>
       </c>
       <c r="I36" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="J36" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K36" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="L36" t="n">
-        <v>4.33</v>
+        <v>4.25</v>
       </c>
       <c r="M36" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="N36" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="O36" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P36" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="R36" t="n">
-        <v>2.25</v>
+        <v>2.36</v>
       </c>
       <c r="S36" t="n">
-        <v>1.25</v>
+        <v>1.68</v>
       </c>
       <c r="T36" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="U36" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="X36" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AF36" t="n">
         <v>1.91</v>
       </c>
-      <c r="V36" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="W36" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="X36" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>1.74</v>
-      </c>
       <c r="AG36" t="n">
-        <v>2.23</v>
+        <v>2.35</v>
       </c>
       <c r="AH36" t="n">
-        <v>3</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="37">
@@ -4473,320 +4473,320 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Dordrecht</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>AZ II</t>
+          <t>PEC Zwolle</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3.06</v>
+        <v>3.28</v>
       </c>
       <c r="G37" t="n">
-        <v>3.76</v>
+        <v>3.58</v>
       </c>
       <c r="H37" t="n">
-        <v>2.19</v>
+        <v>1.98</v>
       </c>
       <c r="I37" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="J37" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K37" t="n">
         <v>1.17</v>
       </c>
       <c r="L37" t="n">
-        <v>4.25</v>
+        <v>4.9</v>
       </c>
       <c r="M37" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="N37" t="n">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="O37" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P37" t="n">
-        <v>3.34</v>
+        <v>3.55</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="R37" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="S37" t="n">
-        <v>1.68</v>
+        <v>1.84</v>
       </c>
       <c r="T37" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="U37" t="n">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="V37" t="n">
-        <v>1.13</v>
+        <v>1.88</v>
       </c>
       <c r="W37" t="n">
-        <v>0.88</v>
+        <v>2.13</v>
       </c>
       <c r="X37" t="n">
-        <v>1.28</v>
+        <v>1.6</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.35</v>
+        <v>1.85</v>
       </c>
       <c r="Z37" t="n">
-        <v>2.63</v>
+        <v>3.45</v>
       </c>
       <c r="AA37" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="AB37" t="n">
-        <v>7.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AC37" t="n">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
       <c r="AD37" t="n">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AE37" t="n">
-        <v>1.56</v>
+        <v>1.42</v>
       </c>
       <c r="AF37" t="n">
-        <v>1.91</v>
+        <v>1.74</v>
       </c>
       <c r="AG37" t="n">
-        <v>2.35</v>
+        <v>2.23</v>
       </c>
       <c r="AH37" t="n">
-        <v>3.28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Netherlands Eerste Divisie</t>
+          <t>Netherlands Eredivisie</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
         <v>45037.625</v>
       </c>
       <c r="C38" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Volendam</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>PEC Zwolle</t>
+          <t>Cambuur</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>3.28</v>
+        <v>1.91</v>
       </c>
       <c r="G38" t="n">
-        <v>3.58</v>
+        <v>3.7</v>
       </c>
       <c r="H38" t="n">
-        <v>1.98</v>
+        <v>3.7</v>
       </c>
       <c r="I38" t="n">
         <v>1.02</v>
       </c>
       <c r="J38" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K38" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="L38" t="n">
-        <v>4.9</v>
+        <v>4</v>
       </c>
       <c r="M38" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="N38" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O38" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R38" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T38" t="n">
         <v>1.25</v>
       </c>
-      <c r="P38" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="R38" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S38" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="T38" t="n">
-        <v>1.24</v>
-      </c>
       <c r="U38" t="n">
-        <v>1.25</v>
+        <v>1.83</v>
       </c>
       <c r="V38" t="n">
-        <v>1.88</v>
+        <v>1.36</v>
       </c>
       <c r="W38" t="n">
-        <v>2.13</v>
+        <v>0.71</v>
       </c>
       <c r="X38" t="n">
-        <v>1.6</v>
+        <v>1.49</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.85</v>
+        <v>1.29</v>
       </c>
       <c r="Z38" t="n">
-        <v>3.45</v>
+        <v>2.78</v>
       </c>
       <c r="AA38" t="n">
-        <v>2.7</v>
+        <v>1.64</v>
       </c>
       <c r="AB38" t="n">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="AC38" t="n">
-        <v>1.66</v>
+        <v>2.6</v>
       </c>
       <c r="AD38" t="n">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="AE38" t="n">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="AF38" t="n">
-        <v>1.74</v>
+        <v>1.48</v>
       </c>
       <c r="AG38" t="n">
-        <v>2.23</v>
+        <v>1.76</v>
       </c>
       <c r="AH38" t="n">
-        <v>3</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Netherlands Eredivisie</t>
+          <t>Netherlands Eerste Divisie</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
         <v>45037.625</v>
       </c>
       <c r="C39" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Volendam</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Cambuur</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="G39" t="n">
-        <v>3.55</v>
+        <v>3.92</v>
       </c>
       <c r="H39" t="n">
-        <v>3.1</v>
+        <v>3.97</v>
       </c>
       <c r="I39" t="n">
         <v>1.02</v>
       </c>
       <c r="J39" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K39" t="n">
         <v>1.2</v>
       </c>
       <c r="L39" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M39" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="N39" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="O39" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P39" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R39" t="n">
-        <v>2.34</v>
+        <v>2.25</v>
       </c>
       <c r="S39" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="T39" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U39" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V39" t="n">
-        <v>1.36</v>
+        <v>1.63</v>
       </c>
       <c r="W39" t="n">
-        <v>0.71</v>
+        <v>1.31</v>
       </c>
       <c r="X39" t="n">
-        <v>1.49</v>
+        <v>1.77</v>
       </c>
       <c r="Y39" t="n">
-        <v>1.29</v>
+        <v>1.48</v>
       </c>
       <c r="Z39" t="n">
-        <v>2.78</v>
+        <v>3.25</v>
       </c>
       <c r="AA39" t="n">
-        <v>1.64</v>
+        <v>1.52</v>
       </c>
       <c r="AB39" t="n">
-        <v>8.5</v>
+        <v>8.9</v>
       </c>
       <c r="AC39" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="AD39" t="n">
-        <v>1.11</v>
+        <v>1.22</v>
       </c>
       <c r="AE39" t="n">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="AF39" t="n">
-        <v>1.48</v>
+        <v>1.74</v>
       </c>
       <c r="AG39" t="n">
-        <v>1.76</v>
+        <v>2.23</v>
       </c>
       <c r="AH39" t="n">
-        <v>2.17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -4812,13 +4812,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>3.3</v>
+        <v>2.62</v>
       </c>
       <c r="G40" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="H40" t="n">
-        <v>2.17</v>
+        <v>2.5</v>
       </c>
       <c r="I40" t="n">
         <v>1.06</v>
@@ -4833,7 +4833,7 @@
         <v>3</v>
       </c>
       <c r="M40" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="N40" t="n">
         <v>1.67</v>
@@ -4922,13 +4922,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="G41" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H41" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="I41" t="n">
         <v>1.04</v>
@@ -4943,10 +4943,10 @@
         <v>3.8</v>
       </c>
       <c r="M41" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="N41" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="O41" t="n">
         <v>1.36</v>
@@ -5032,13 +5032,13 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="G42" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H42" t="n">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="I42" t="n">
         <v>1.09</v>
@@ -5053,10 +5053,10 @@
         <v>2.83</v>
       </c>
       <c r="M42" t="n">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="N42" t="n">
-        <v>1.52</v>
+        <v>1.61</v>
       </c>
       <c r="O42" t="n">
         <v>1.5</v>
@@ -5122,111 +5122,111 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Republic of Ireland Premier Division</t>
+          <t>Italy Serie A</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
         <v>45037.65625</v>
       </c>
       <c r="C43" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>St Patrick's Athl.</t>
+          <t>Hellas Verona</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="G43" t="n">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="H43" t="n">
-        <v>1.98</v>
+        <v>2.55</v>
       </c>
       <c r="I43" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="J43" t="n">
-        <v>9.25</v>
+        <v>6.5</v>
       </c>
       <c r="K43" t="n">
-        <v>1.27</v>
+        <v>1.5</v>
       </c>
       <c r="L43" t="n">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="M43" t="n">
-        <v>1.86</v>
+        <v>2.4</v>
       </c>
       <c r="N43" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="O43" t="n">
-        <v>1.39</v>
+        <v>1.58</v>
       </c>
       <c r="P43" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AG43" t="n">
         <v>3.04</v>
       </c>
-      <c r="Q43" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="R43" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S43" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="T43" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="U43" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="V43" t="n">
-        <v>2</v>
-      </c>
-      <c r="W43" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="X43" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>2.32</v>
-      </c>
       <c r="AH43" t="n">
-        <v>3.1</v>
+        <v>4.33</v>
       </c>
     </row>
     <row r="44">
@@ -5243,210 +5243,210 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Shelbourne</t>
+          <t>Cork City</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Dundalk</t>
+          <t>Derry City</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.14</v>
+        <v>4.25</v>
       </c>
       <c r="G44" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="H44" t="n">
-        <v>3.4</v>
+        <v>1.75</v>
       </c>
       <c r="I44" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="J44" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K44" t="n">
-        <v>1.49</v>
+        <v>1.33</v>
       </c>
       <c r="L44" t="n">
-        <v>2.45</v>
+        <v>3.25</v>
       </c>
       <c r="M44" t="n">
         <v>2.05</v>
       </c>
       <c r="N44" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P44" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R44" t="n">
         <v>1.77</v>
       </c>
-      <c r="O44" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="P44" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R44" t="n">
+      <c r="S44" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U44" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="V44" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W44" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="X44" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AF44" t="n">
         <v>1.7</v>
       </c>
-      <c r="S44" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T44" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="U44" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="V44" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="W44" t="n">
-        <v>1</v>
-      </c>
-      <c r="X44" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>1.9</v>
-      </c>
       <c r="AG44" t="n">
-        <v>2.47</v>
+        <v>2.13</v>
       </c>
       <c r="AH44" t="n">
-        <v>3.34</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Italy Serie A</t>
+          <t>Republic of Ireland Premier Division</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
         <v>45037.65625</v>
       </c>
       <c r="C45" t="n">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Hellas Verona</t>
+          <t>Drogheda United</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Bohemians</t>
         </is>
       </c>
       <c r="F45" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G45" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="J45" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="L45" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P45" t="n">
         <v>2.65</v>
       </c>
-      <c r="G45" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="J45" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K45" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="L45" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="M45" t="n">
+      <c r="Q45" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U45" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1</v>
+      </c>
+      <c r="W45" t="n">
         <v>2.4</v>
       </c>
-      <c r="N45" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="O45" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="P45" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R45" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S45" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="T45" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="U45" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V45" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W45" t="n">
-        <v>1.21</v>
-      </c>
       <c r="X45" t="n">
-        <v>1.43</v>
+        <v>1.9</v>
       </c>
       <c r="Y45" t="n">
-        <v>1.26</v>
+        <v>1.11</v>
       </c>
       <c r="Z45" t="n">
-        <v>2.69</v>
+        <v>3.01</v>
       </c>
       <c r="AA45" t="n">
-        <v>1.83</v>
+        <v>2.32</v>
       </c>
       <c r="AB45" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC45" t="n">
-        <v>2.36</v>
+        <v>1.82</v>
       </c>
       <c r="AD45" t="n">
-        <v>1.42</v>
+        <v>1.15</v>
       </c>
       <c r="AE45" t="n">
-        <v>1.77</v>
+        <v>1.34</v>
       </c>
       <c r="AF45" t="n">
-        <v>2.26</v>
+        <v>1.6</v>
       </c>
       <c r="AG45" t="n">
-        <v>3.04</v>
+        <v>1.99</v>
       </c>
       <c r="AH45" t="n">
-        <v>4.33</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="46">
@@ -5463,100 +5463,100 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Cork City</t>
+          <t>Shelbourne</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Derry City</t>
+          <t>Dundalk</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>4.35</v>
+        <v>2.1</v>
       </c>
       <c r="G46" t="n">
-        <v>3.6</v>
+        <v>2.87</v>
       </c>
       <c r="H46" t="n">
-        <v>1.75</v>
+        <v>3.4</v>
       </c>
       <c r="I46" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="J46" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K46" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="L46" t="n">
-        <v>3.25</v>
+        <v>2.45</v>
       </c>
       <c r="M46" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Q46" t="n">
         <v>2.1</v>
       </c>
-      <c r="N46" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="O46" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P46" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>1.98</v>
-      </c>
       <c r="R46" t="n">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="S46" t="n">
-        <v>2.05</v>
+        <v>1.3</v>
       </c>
       <c r="T46" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U46" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="V46" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1</v>
+      </c>
+      <c r="X46" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AD46" t="n">
         <v>1.29</v>
       </c>
-      <c r="U46" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="V46" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W46" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="X46" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>1.2</v>
-      </c>
       <c r="AE46" t="n">
-        <v>1.39</v>
+        <v>1.52</v>
       </c>
       <c r="AF46" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="AG46" t="n">
-        <v>2.13</v>
+        <v>2.47</v>
       </c>
       <c r="AH46" t="n">
-        <v>2.85</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="47">
@@ -5573,100 +5573,100 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Drogheda United</t>
+          <t>St Patrick's Athl.</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Bohemians</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="F47" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="G47" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="J47" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="L47" t="n">
         <v>3.4</v>
       </c>
-      <c r="G47" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="J47" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="K47" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="L47" t="n">
+      <c r="M47" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="U47" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="V47" t="n">
+        <v>2</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X47" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AH47" t="n">
         <v>3.1</v>
-      </c>
-      <c r="M47" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="N47" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="O47" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P47" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="R47" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="S47" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="T47" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U47" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="V47" t="n">
-        <v>1</v>
-      </c>
-      <c r="W47" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="X47" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>2.62</v>
       </c>
     </row>
     <row r="48">
@@ -5692,13 +5692,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="G48" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H48" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="I48" t="n">
         <v>1.08</v>
@@ -5713,10 +5713,10 @@
         <v>2.8</v>
       </c>
       <c r="M48" t="n">
-        <v>2.23</v>
+        <v>2.3</v>
       </c>
       <c r="N48" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="O48" t="n">
         <v>1.5</v>
@@ -5782,7 +5782,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>France Ligue 1</t>
+          <t>England Premier League</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">
@@ -5793,100 +5793,100 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Angers SCO</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>PSG</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>8</v>
+        <v>1.2</v>
       </c>
       <c r="G49" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="H49" t="n">
-        <v>1.25</v>
+        <v>17</v>
       </c>
       <c r="I49" t="n">
         <v>1.02</v>
       </c>
       <c r="J49" t="n">
+        <v>19</v>
+      </c>
+      <c r="K49" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="L49" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="N49" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="U49" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="X49" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AB49" t="n">
         <v>13</v>
       </c>
-      <c r="K49" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="L49" t="n">
-        <v>5</v>
-      </c>
-      <c r="M49" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="N49" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="O49" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P49" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R49" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S49" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T49" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="U49" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="V49" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="W49" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="X49" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>9.9</v>
-      </c>
       <c r="AC49" t="n">
-        <v>1.36</v>
+        <v>6.45</v>
       </c>
       <c r="AD49" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AE49" t="n">
-        <v>1.63</v>
+        <v>1.46</v>
       </c>
       <c r="AF49" t="n">
-        <v>2.04</v>
+        <v>1.82</v>
       </c>
       <c r="AG49" t="n">
-        <v>2.64</v>
+        <v>2.3</v>
       </c>
       <c r="AH49" t="n">
-        <v>3.65</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="50">
@@ -5912,13 +5912,13 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="G50" t="n">
-        <v>3.15</v>
+        <v>2.9</v>
       </c>
       <c r="H50" t="n">
-        <v>4.55</v>
+        <v>4.33</v>
       </c>
       <c r="I50" t="n">
         <v>1.11</v>
@@ -5927,16 +5927,16 @@
         <v>6.5</v>
       </c>
       <c r="K50" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="L50" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="M50" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="N50" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O50" t="n">
         <v>1.6</v>
@@ -6002,7 +6002,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>England Premier League</t>
+          <t>France Ligue 1</t>
         </is>
       </c>
       <c r="B51" s="2" t="n">
@@ -6013,100 +6013,100 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Angers SCO</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>PSG</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.2</v>
+        <v>11</v>
       </c>
       <c r="G51" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="H51" t="n">
-        <v>13</v>
+        <v>1.28</v>
       </c>
       <c r="I51" t="n">
         <v>1.02</v>
       </c>
       <c r="J51" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K51" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="L51" t="n">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="M51" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="N51" t="n">
-        <v>2.57</v>
+        <v>2.7</v>
       </c>
       <c r="O51" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P51" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.1</v>
+        <v>1.78</v>
       </c>
       <c r="R51" t="n">
-        <v>1.67</v>
+        <v>1.9</v>
       </c>
       <c r="S51" t="n">
-        <v>1.03</v>
+        <v>3.5</v>
       </c>
       <c r="T51" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="U51" t="n">
-        <v>4.4</v>
+        <v>1.07</v>
       </c>
       <c r="V51" t="n">
-        <v>2.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="W51" t="n">
-        <v>0.87</v>
+        <v>2.27</v>
       </c>
       <c r="X51" t="n">
-        <v>2.29</v>
+        <v>1.37</v>
       </c>
       <c r="Y51" t="n">
-        <v>1.18</v>
+        <v>1.97</v>
       </c>
       <c r="Z51" t="n">
-        <v>3.47</v>
+        <v>3.34</v>
       </c>
       <c r="AA51" t="n">
-        <v>1.17</v>
+        <v>3.98</v>
       </c>
       <c r="AB51" t="n">
-        <v>13</v>
+        <v>9.9</v>
       </c>
       <c r="AC51" t="n">
-        <v>6.45</v>
+        <v>1.36</v>
       </c>
       <c r="AD51" t="n">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="AE51" t="n">
-        <v>1.46</v>
+        <v>1.63</v>
       </c>
       <c r="AF51" t="n">
-        <v>1.82</v>
+        <v>2.04</v>
       </c>
       <c r="AG51" t="n">
-        <v>2.3</v>
+        <v>2.64</v>
       </c>
       <c r="AH51" t="n">
-        <v>3.04</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="52">
@@ -6132,13 +6132,13 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G52" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="H52" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="I52" t="n">
         <v>1.07</v>
@@ -6153,10 +6153,10 @@
         <v>1.98</v>
       </c>
       <c r="M52" t="n">
-        <v>2.06</v>
+        <v>2.15</v>
       </c>
       <c r="N52" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="O52" t="n">
         <v>1.45</v>
@@ -6242,13 +6242,13 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="G53" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="H53" t="n">
-        <v>3.8</v>
+        <v>3.73</v>
       </c>
       <c r="I53" t="n">
         <v>1.1</v>
@@ -6263,10 +6263,10 @@
         <v>2.65</v>
       </c>
       <c r="M53" t="n">
-        <v>2.45</v>
+        <v>2.39</v>
       </c>
       <c r="N53" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="O53" t="n">
         <v>1.53</v>
@@ -6355,10 +6355,10 @@
         <v>1.67</v>
       </c>
       <c r="G54" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H54" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I54" t="n">
         <v>1.04</v>
@@ -6373,10 +6373,10 @@
         <v>3.43</v>
       </c>
       <c r="M54" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="N54" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="O54" t="n">
         <v>1.38</v>
@@ -6415,28 +6415,28 @@
         <v>2.71</v>
       </c>
       <c r="AA54" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AB54" t="n">
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="AC54" t="n">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="AD54" t="n">
         <v>0</v>
       </c>
       <c r="AE54" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AF54" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AG54" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AH54" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="55">
@@ -6462,10 +6462,10 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.7</v>
+        <v>2.86</v>
       </c>
       <c r="G55" t="n">
-        <v>3</v>
+        <v>2.86</v>
       </c>
       <c r="H55" t="n">
         <v>2.37</v>
@@ -6486,7 +6486,7 @@
         <v>1.95</v>
       </c>
       <c r="N55" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O55" t="n">
         <v>1.44</v>
@@ -6552,33 +6552,33 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Uruguay Segunda División</t>
+          <t>England Premier League</t>
         </is>
       </c>
       <c r="B56" s="2" t="n">
         <v>45037.79166666666</v>
       </c>
       <c r="C56" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Cerrito</t>
+          <t>Manchester United</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Potencia</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -6593,10 +6593,10 @@
         <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -6620,19 +6620,19 @@
         <v>0</v>
       </c>
       <c r="V56" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="W56" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="X56" t="n">
-        <v>1.14</v>
+        <v>1.83</v>
       </c>
       <c r="Y56" t="n">
-        <v>1.31</v>
+        <v>1.56</v>
       </c>
       <c r="Z56" t="n">
-        <v>2.45</v>
+        <v>3.39</v>
       </c>
       <c r="AA56" t="n">
         <v>0</v>
@@ -6662,105 +6662,105 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Uruguay Segunda División</t>
+          <t>Bolivia LFPB</t>
         </is>
       </c>
       <c r="B57" s="2" t="n">
         <v>45037.79166666666</v>
       </c>
       <c r="C57" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Rentistas</t>
+          <t>Independiente Petrolero</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Bella Vista</t>
+          <t>Nacional Potosí</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>3.09</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="N57" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="O57" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P57" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Q57" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="R57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S57" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="T57" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="U57" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="V57" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W57" t="n">
+        <v>1</v>
+      </c>
+      <c r="X57" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF57" t="n">
         <v>2</v>
-      </c>
-      <c r="W57" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X57" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Y57" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Z57" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="AA57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF57" t="n">
-        <v>0</v>
       </c>
       <c r="AG57" t="n">
         <v>0</v>
@@ -6772,307 +6772,307 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Uruguay Segunda División</t>
+          <t>Uruguay Primera División</t>
         </is>
       </c>
       <c r="B58" s="2" t="n">
         <v>45037.79166666666</v>
       </c>
       <c r="C58" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Tacuarembó</t>
+          <t>Cerro Largo</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Juventud</t>
+          <t>Racing</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>4.91</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="M58" t="n">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="N58" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="O58" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P58" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Q58" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="R58" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="S58" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="T58" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="U58" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="V58" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="W58" t="n">
+        <v>2</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="Y58" t="n">
         <v>1.5</v>
       </c>
-      <c r="X58" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y58" t="n">
-        <v>2.02</v>
-      </c>
       <c r="Z58" t="n">
-        <v>2.02</v>
+        <v>2.01</v>
       </c>
       <c r="AA58" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AB58" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC58" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AD58" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AE58" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AF58" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AG58" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AH58" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Uruguay Segunda División</t>
+          <t>Brazil Serie B</t>
         </is>
       </c>
       <c r="B59" s="2" t="n">
         <v>45037.79166666666</v>
       </c>
       <c r="C59" t="n">
+        <v>2</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Botafogo SP</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Sampaio Corrêa</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H59" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="J59" t="n">
         <v>7</v>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Progreso</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Albion</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>2</v>
-      </c>
-      <c r="G59" t="n">
-        <v>3</v>
-      </c>
-      <c r="H59" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="M59" t="n">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="N59" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="P59" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R59" t="n">
         <v>1.65</v>
       </c>
-      <c r="O59" t="n">
-        <v>0</v>
-      </c>
-      <c r="P59" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>0</v>
-      </c>
-      <c r="R59" t="n">
-        <v>0</v>
-      </c>
       <c r="S59" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="T59" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="U59" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="V59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W59" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="X59" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="Y59" t="n">
-        <v>1.94</v>
+        <v>0</v>
       </c>
       <c r="Z59" t="n">
-        <v>3.72</v>
+        <v>0</v>
       </c>
       <c r="AA59" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AB59" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC59" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AD59" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE59" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AF59" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AG59" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AH59" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Uruguay Segunda División</t>
+          <t>Mexico Ascenso MX</t>
         </is>
       </c>
       <c r="B60" s="2" t="n">
-        <v>45037.79166666666</v>
+        <v>45037.83333333334</v>
       </c>
       <c r="C60" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Rampla Juniors</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Oriental</t>
+          <t>Correcaminos UAT</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.95</v>
+        <v>2.11</v>
       </c>
       <c r="G60" t="n">
-        <v>3.1</v>
+        <v>3.17</v>
       </c>
       <c r="H60" t="n">
-        <v>3.5</v>
+        <v>3.12</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="M60" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="N60" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="O60" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P60" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Q60" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="R60" t="n">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="S60" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="T60" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U60" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="V60" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="W60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X60" t="n">
-        <v>1.31</v>
+        <v>1.52</v>
       </c>
       <c r="Y60" t="n">
-        <v>1.69</v>
+        <v>1.2</v>
       </c>
       <c r="Z60" t="n">
-        <v>3</v>
+        <v>2.72</v>
       </c>
       <c r="AA60" t="n">
         <v>0</v>
@@ -7090,10 +7090,10 @@
         <v>0</v>
       </c>
       <c r="AF60" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AG60" t="n">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AH60" t="n">
         <v>0</v>
@@ -7102,221 +7102,221 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Brazil Serie B</t>
+          <t>Argentina Prim B Nacional</t>
         </is>
       </c>
       <c r="B61" s="2" t="n">
-        <v>45037.79166666666</v>
+        <v>45037.84027777778</v>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Estudiantes Río Cuarto</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Sampaio Corrêa</t>
+          <t>Club Atlético Güemes</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="G61" t="n">
-        <v>2.9</v>
+        <v>2.83</v>
       </c>
       <c r="H61" t="n">
-        <v>2.75</v>
+        <v>2.92</v>
       </c>
       <c r="I61" t="n">
         <v>1.09</v>
       </c>
       <c r="J61" t="n">
-        <v>7</v>
+        <v>7.15</v>
       </c>
       <c r="K61" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="L61" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="M61" t="n">
-        <v>2.45</v>
+        <v>2.62</v>
       </c>
       <c r="N61" t="n">
-        <v>1.5</v>
+        <v>1.37</v>
       </c>
       <c r="O61" t="n">
-        <v>1.51</v>
+        <v>1.6</v>
       </c>
       <c r="P61" t="n">
-        <v>2.37</v>
+        <v>2.22</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="R61" t="n">
-        <v>1.65</v>
+        <v>1.52</v>
       </c>
       <c r="S61" t="n">
-        <v>1.35</v>
+        <v>1.23</v>
       </c>
       <c r="T61" t="n">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="U61" t="n">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="V61" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="W61" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X61" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="Y61" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="Z61" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="AA61" t="n">
-        <v>1.75</v>
+        <v>1.54</v>
       </c>
       <c r="AB61" t="n">
         <v>8</v>
       </c>
       <c r="AC61" t="n">
-        <v>2.44</v>
+        <v>3.07</v>
       </c>
       <c r="AD61" t="n">
-        <v>1.19</v>
+        <v>1.35</v>
       </c>
       <c r="AE61" t="n">
-        <v>1.39</v>
+        <v>1.7</v>
       </c>
       <c r="AF61" t="n">
-        <v>1.69</v>
+        <v>2.12</v>
       </c>
       <c r="AG61" t="n">
-        <v>2.12</v>
+        <v>2.8</v>
       </c>
       <c r="AH61" t="n">
-        <v>2.75</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Uruguay Primera División</t>
+          <t>Argentina Primera División</t>
         </is>
       </c>
       <c r="B62" s="2" t="n">
-        <v>45037.79166666666</v>
+        <v>45037.85416666666</v>
       </c>
       <c r="C62" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Cerro Largo</t>
+          <t>Colón</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Racing</t>
+          <t>Vélez Sarsfield</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1.67</v>
+        <v>2.6</v>
       </c>
       <c r="G62" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H62" t="n">
-        <v>5.2</v>
+        <v>2.88</v>
       </c>
       <c r="I62" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="J62" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K62" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="L62" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="N62" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="O62" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="P62" t="n">
         <v>2.45</v>
       </c>
-      <c r="M62" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="N62" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="O62" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P62" t="n">
-        <v>2.5</v>
-      </c>
       <c r="Q62" t="n">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="R62" t="n">
-        <v>1.53</v>
+        <v>1.77</v>
       </c>
       <c r="S62" t="n">
-        <v>1.15</v>
+        <v>1.42</v>
       </c>
       <c r="T62" t="n">
         <v>1.33</v>
       </c>
       <c r="U62" t="n">
-        <v>1.95</v>
+        <v>1.52</v>
       </c>
       <c r="V62" t="n">
-        <v>1.83</v>
+        <v>0.67</v>
       </c>
       <c r="W62" t="n">
+        <v>1</v>
+      </c>
+      <c r="X62" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AA62" t="n">
         <v>2</v>
-      </c>
-      <c r="X62" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="Y62" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Z62" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="AA62" t="n">
-        <v>1.8</v>
       </c>
       <c r="AB62" t="n">
         <v>7.5</v>
       </c>
       <c r="AC62" t="n">
-        <v>2.38</v>
+        <v>2.05</v>
       </c>
       <c r="AD62" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="AE62" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="AF62" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="AG62" t="n">
-        <v>2.85</v>
+        <v>3.1</v>
       </c>
       <c r="AH62" t="n">
-        <v>4</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="63">
@@ -7326,83 +7326,83 @@
         </is>
       </c>
       <c r="B63" s="2" t="n">
-        <v>45037.79166666666</v>
+        <v>45037.875</v>
       </c>
       <c r="C63" t="n">
         <v>10</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Independiente Petrolero</t>
+          <t>Royal Pari</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Nacional Potosí</t>
+          <t>Blooming</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1.85</v>
+        <v>1.48</v>
       </c>
       <c r="G63" t="n">
-        <v>3.1</v>
+        <v>3.88</v>
       </c>
       <c r="H63" t="n">
-        <v>3.75</v>
+        <v>4.84</v>
       </c>
       <c r="I63" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="J63" t="n">
-        <v>10</v>
+        <v>20.5</v>
       </c>
       <c r="K63" t="n">
-        <v>1.28</v>
+        <v>1.14</v>
       </c>
       <c r="L63" t="n">
-        <v>3.45</v>
+        <v>4.6</v>
       </c>
       <c r="M63" t="n">
-        <v>1.9</v>
+        <v>1.43</v>
       </c>
       <c r="N63" t="n">
-        <v>1.84</v>
+        <v>2.5</v>
       </c>
       <c r="O63" t="n">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="P63" t="n">
-        <v>2.75</v>
+        <v>3.74</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.73</v>
+        <v>1.45</v>
       </c>
       <c r="R63" t="n">
-        <v>2</v>
+        <v>2.66</v>
       </c>
       <c r="S63" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="T63" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="U63" t="n">
-        <v>1.66</v>
+        <v>1.8</v>
       </c>
       <c r="V63" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="W63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X63" t="n">
-        <v>1.46</v>
+        <v>1.82</v>
       </c>
       <c r="Y63" t="n">
-        <v>1.06</v>
+        <v>1.19</v>
       </c>
       <c r="Z63" t="n">
-        <v>2.52</v>
+        <v>3.01</v>
       </c>
       <c r="AA63" t="n">
         <v>0</v>
@@ -7420,7 +7420,7 @@
         <v>0</v>
       </c>
       <c r="AF63" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AG63" t="n">
         <v>0</v>
@@ -7432,87 +7432,87 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>England Premier League</t>
+          <t>Ecuador Primera Categoría Serie A</t>
         </is>
       </c>
       <c r="B64" s="2" t="n">
-        <v>45037.79166666666</v>
+        <v>45037.875</v>
       </c>
       <c r="C64" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Manchester United</t>
+          <t>Guayaquil City FC</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Delfin SC</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
+        <v>9.75</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>3.64</v>
       </c>
       <c r="M64" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="N64" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="O64" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P64" t="n">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="Q64" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="R64" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="S64" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="T64" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U64" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="V64" t="n">
-        <v>2.4</v>
+        <v>1.33</v>
       </c>
       <c r="W64" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="X64" t="n">
-        <v>1.83</v>
+        <v>1.25</v>
       </c>
       <c r="Y64" t="n">
-        <v>1.56</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Z64" t="n">
-        <v>3.39</v>
+        <v>1.81</v>
       </c>
       <c r="AA64" t="n">
         <v>0</v>
@@ -7524,678 +7524,18 @@
         <v>0</v>
       </c>
       <c r="AD64" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AE64" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AF64" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="AG64" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="AH64" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Uruguay Segunda División</t>
-        </is>
-      </c>
-      <c r="B65" s="2" t="n">
-        <v>45037.79166666666</v>
-      </c>
-      <c r="C65" t="n">
-        <v>7</v>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Atenas</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Uruguay Montevideo FC</t>
-        </is>
-      </c>
-      <c r="F65" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="G65" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0</v>
-      </c>
-      <c r="L65" t="n">
-        <v>0</v>
-      </c>
-      <c r="M65" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="N65" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="O65" t="n">
-        <v>0</v>
-      </c>
-      <c r="P65" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>0</v>
-      </c>
-      <c r="R65" t="n">
-        <v>0</v>
-      </c>
-      <c r="S65" t="n">
-        <v>0</v>
-      </c>
-      <c r="T65" t="n">
-        <v>0</v>
-      </c>
-      <c r="U65" t="n">
-        <v>0</v>
-      </c>
-      <c r="V65" t="n">
-        <v>0</v>
-      </c>
-      <c r="W65" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X65" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="Y65" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Z65" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AA65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH65" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Mexico Ascenso MX</t>
-        </is>
-      </c>
-      <c r="B66" s="2" t="n">
-        <v>45037.83333333334</v>
-      </c>
-      <c r="C66" t="n">
-        <v>17</v>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Tlaxcala</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Correcaminos UAT</t>
-        </is>
-      </c>
-      <c r="F66" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="G66" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="H66" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="J66" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K66" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M66" t="n">
-        <v>2</v>
-      </c>
-      <c r="N66" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="O66" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P66" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="R66" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="S66" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T66" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U66" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V66" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W66" t="n">
-        <v>1</v>
-      </c>
-      <c r="X66" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Y66" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="Z66" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="AA66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH66" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Argentina Prim B Nacional</t>
-        </is>
-      </c>
-      <c r="B67" s="2" t="n">
-        <v>45037.84027777778</v>
-      </c>
-      <c r="C67" t="n">
-        <v>13</v>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Estudiantes Río Cuarto</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Club Atlético Güemes</t>
-        </is>
-      </c>
-      <c r="F67" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G67" t="n">
-        <v>3</v>
-      </c>
-      <c r="H67" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="J67" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="K67" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="L67" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="M67" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="N67" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="O67" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="P67" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R67" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S67" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="T67" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="U67" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V67" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W67" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X67" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="Y67" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="Z67" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AA67" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AB67" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC67" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="AD67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE67" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AF67" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AG67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH67" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Argentina Primera División</t>
-        </is>
-      </c>
-      <c r="B68" s="2" t="n">
-        <v>45037.85416666666</v>
-      </c>
-      <c r="C68" t="n">
-        <v>13</v>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Colón</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Vélez Sarsfield</t>
-        </is>
-      </c>
-      <c r="F68" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="G68" t="n">
-        <v>3</v>
-      </c>
-      <c r="H68" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="J68" t="n">
-        <v>8</v>
-      </c>
-      <c r="K68" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="M68" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="N68" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="O68" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="P68" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>2</v>
-      </c>
-      <c r="R68" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="S68" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="T68" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U68" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="V68" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="W68" t="n">
-        <v>1</v>
-      </c>
-      <c r="X68" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Y68" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="Z68" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="AA68" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB68" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AC68" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AD68" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AE68" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AF68" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AG68" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AH68" t="n">
-        <v>3.92</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Bolivia LFPB</t>
-        </is>
-      </c>
-      <c r="B69" s="2" t="n">
-        <v>45037.875</v>
-      </c>
-      <c r="C69" t="n">
-        <v>10</v>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Royal Pari</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Blooming</t>
-        </is>
-      </c>
-      <c r="F69" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="G69" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H69" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J69" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="K69" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="L69" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="M69" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="N69" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O69" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P69" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="R69" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="S69" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T69" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="U69" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V69" t="n">
-        <v>1</v>
-      </c>
-      <c r="W69" t="n">
-        <v>0</v>
-      </c>
-      <c r="X69" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Y69" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="Z69" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="AA69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF69" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AG69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH69" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Ecuador Primera Categoría Serie A</t>
-        </is>
-      </c>
-      <c r="B70" s="2" t="n">
-        <v>45037.875</v>
-      </c>
-      <c r="C70" t="n">
-        <v>7</v>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Guayaquil City FC</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Delfin SC</t>
-        </is>
-      </c>
-      <c r="F70" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="G70" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H70" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="J70" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="L70" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="M70" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="N70" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="O70" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P70" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="R70" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="S70" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="T70" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U70" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V70" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="W70" t="n">
-        <v>0</v>
-      </c>
-      <c r="X70" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y70" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="Z70" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="AA70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH70" t="n">
         <v>0</v>
       </c>
     </row>
